--- a/project/snapshot_dashboard/test/Text_badget_input_test.xlsx
+++ b/project/snapshot_dashboard/test/Text_badget_input_test.xlsx
@@ -1,40 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vishalsharma/Desktop/Oil_Predictor_Project/CODE/fuel_price_prediction_tool/refactored_app_project_folder/fuel_saver_test_6_August/pfpcs_application/project/snapshot_dashboard/test/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2831950-BF6B-D947-9ACA-22B4AB967751}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data Source" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Post Code</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>unleaded</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>https://www.rac.co.uk/drive/advice/fuel-watch/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,29 +102,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -359,88 +432,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Brand</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Fuel</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Post Code</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Prediction</t>
-        </is>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>43313</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3846153868757078</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>unleaded</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Simple</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6428571373934995</v>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.38461538687570779</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0.64285713739349948</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B47F0C-C776-3246-BBC3-2BAAB33A4FC8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{9E646549-D6C5-7848-9D93-A6144A4B74D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>